--- a/Data_preparation/datasets/final_data/MARVELL_TECHNOLOGY_INC.xlsx
+++ b/Data_preparation/datasets/final_data/MARVELL_TECHNOLOGY_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>QUBT</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>YELP</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>SHOP</t>
-  </si>
-  <si>
-    <t>TSEM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>CRWD</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>13.92315180070411</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>14.50815868377686</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>15.10216501249978</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>13.41014563273013</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>862100000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>7916939000</v>
@@ -888,22 +777,22 @@
         <v>42126</v>
       </c>
       <c r="D3">
-        <v>38.38000106811523</v>
+        <v>12.7364545970468</v>
       </c>
       <c r="E3">
-        <v>41.27000045776367</v>
+        <v>12.63709163665772</v>
       </c>
       <c r="F3">
-        <v>41.95999908447266</v>
+        <v>13.1339038542565</v>
       </c>
       <c r="G3">
-        <v>37.84000015258789</v>
+        <v>11.78799506553074</v>
       </c>
       <c r="H3">
-        <v>119792704</v>
+        <v>862100000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>7364500000</v>
@@ -1013,22 +902,22 @@
         <v>42217</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>11.25852150735304</v>
       </c>
       <c r="E4">
-        <v>95.62999725341795</v>
+        <v>10.22429847717285</v>
       </c>
       <c r="F4">
-        <v>119.9899978637695</v>
+        <v>12.11130284173944</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>9.072136700872576</v>
       </c>
       <c r="H4">
-        <v>42689006</v>
+        <v>862100000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>6438944000</v>
@@ -1126,22 +1015,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>7.497491551601611</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>8.091080665588379</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>8.237195726346128</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>7.479226842415916</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>862100000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>4249496000</v>
@@ -1239,22 +1128,22 @@
         <v>42399</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>8.01251383965249</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>8.785247802734375</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>8.987630716233259</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>7.653744248991547</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>862100000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>4580760000</v>
@@ -1355,22 +1244,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>9.17914328880609</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>9.465991020202637</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>9.521510419881508</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>8.642459582531012</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>862100000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>5165648000</v>
@@ -1468,22 +1357,22 @@
         <v>42581</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>10.98296741527677</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>11.5414228439331</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>11.72757554112706</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>10.48966489805321</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>862100000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>6006600000</v>
@@ -1581,22 +1470,22 @@
         <v>42672</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>12.32425280953912</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>13.40893650054932</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>14.02608405634792</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>11.50138910455618</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>862100000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>6703270000</v>
@@ -1694,22 +1583,22 @@
         <v>42763</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>14.5466996624115</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>14.65000152587891</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>15.30737229842711</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>14.20862303480435</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>862100000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>7664211000</v>
@@ -1807,22 +1696,22 @@
         <v>42854</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>14.16917142126092</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>16.25259590148926</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>16.78052195403242</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>13.80150885943175</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>862100000</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>7546048000</v>
@@ -1920,22 +1809,22 @@
         <v>42945</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>14.74968568316743</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>16.94463539123535</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>17.00140083415686</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>14.06849405221619</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>862100000</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>7835534000</v>
@@ -2045,22 +1934,22 @@
         <v>43036</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>17.62663225560296</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>21.20511436462402</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>22.98960840836444</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>16.94320935149147</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>862100000</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>9142552000</v>
@@ -2170,22 +2059,22 @@
         <v>43134</v>
       </c>
       <c r="D14">
-        <v>96.40000152587891</v>
+        <v>21.99596029275611</v>
       </c>
       <c r="E14">
-        <v>111.0500030517578</v>
+        <v>22.35764122009277</v>
       </c>
       <c r="F14">
-        <v>114.8949966430664</v>
+        <v>22.79546741150349</v>
       </c>
       <c r="G14">
-        <v>85.65499877929688</v>
+        <v>19.38804490651938</v>
       </c>
       <c r="H14">
-        <v>52693110</v>
+        <v>862100000</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>11017616000</v>
@@ -2283,22 +2172,22 @@
         <v>43225</v>
       </c>
       <c r="D15">
-        <v>5.599999904632568</v>
+        <v>18.97489053677973</v>
       </c>
       <c r="E15">
-        <v>6.199999809265137</v>
+        <v>20.5593147277832</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>21.71422424220528</v>
       </c>
       <c r="G15">
-        <v>2.599999904632568</v>
+        <v>18.54537950121776</v>
       </c>
       <c r="H15">
-        <v>186750463</v>
+        <v>862100000</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>10550625000</v>
@@ -2408,22 +2297,22 @@
         <v>43316</v>
       </c>
       <c r="D16">
-        <v>9.800000190734863</v>
+        <v>20.38756248064068</v>
       </c>
       <c r="E16">
-        <v>10.67000007629394</v>
+        <v>19.79412269592285</v>
       </c>
       <c r="F16">
-        <v>11.03999996185303</v>
+        <v>21.29686767335567</v>
       </c>
       <c r="G16">
-        <v>9.640000343322754</v>
+        <v>18.64552685519263</v>
       </c>
       <c r="H16">
-        <v>590361084</v>
+        <v>862100000</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>10682863000</v>
@@ -2536,22 +2425,22 @@
         <v>43407</v>
       </c>
       <c r="D17">
-        <v>43.09999847412109</v>
+        <v>15.78482322052228</v>
       </c>
       <c r="E17">
-        <v>33.66999816894531</v>
+        <v>15.46797466278076</v>
       </c>
       <c r="F17">
-        <v>45.45000076293945</v>
+        <v>16.95620234855605</v>
       </c>
       <c r="G17">
-        <v>29.32999992370605</v>
+        <v>14.10456441321453</v>
       </c>
       <c r="H17">
-        <v>63060655</v>
+        <v>862100000</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>11581256000</v>
@@ -2652,22 +2541,22 @@
         <v>43498</v>
       </c>
       <c r="D18">
-        <v>42.57177170884528</v>
+        <v>17.88279809726178</v>
       </c>
       <c r="E18">
-        <v>50.12861633300781</v>
+        <v>19.2324447631836</v>
       </c>
       <c r="F18">
-        <v>50.92654229134714</v>
+        <v>19.5505753427233</v>
       </c>
       <c r="G18">
-        <v>42.39341275772282</v>
+        <v>17.30438019900461</v>
       </c>
       <c r="H18">
-        <v>167899010</v>
+        <v>862100000</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>12102734000</v>
@@ -2768,22 +2657,22 @@
         <v>43589</v>
       </c>
       <c r="D19">
-        <v>38.72379192003729</v>
+        <v>24.32712140668389</v>
       </c>
       <c r="E19">
-        <v>32.58123397827148</v>
+        <v>21.56179618835449</v>
       </c>
       <c r="F19">
-        <v>38.77828837209536</v>
+        <v>24.49149392338618</v>
       </c>
       <c r="G19">
-        <v>32.54230836534913</v>
+        <v>20.59489946521377</v>
       </c>
       <c r="H19">
-        <v>212968277</v>
+        <v>862100000</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>16273179000</v>
@@ -2884,22 +2773,22 @@
         <v>43680</v>
       </c>
       <c r="D20">
-        <v>7.320000171661377</v>
+        <v>25.54847386198296</v>
       </c>
       <c r="E20">
-        <v>6.869999885559082</v>
+        <v>23.23205184936523</v>
       </c>
       <c r="F20">
-        <v>7.360000133514404</v>
+        <v>25.96523605102153</v>
       </c>
       <c r="G20">
-        <v>6.639999866485596</v>
+        <v>22.46637398350357</v>
       </c>
       <c r="H20">
-        <v>590361084</v>
+        <v>862100000</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>16544830000</v>
@@ -3000,22 +2889,22 @@
         <v>43771</v>
       </c>
       <c r="D21">
-        <v>320.1138957603493</v>
+        <v>23.85657126427364</v>
       </c>
       <c r="E21">
-        <v>318.6824951171875</v>
+        <v>25.62516593933105</v>
       </c>
       <c r="F21">
-        <v>325.9843691053953</v>
+        <v>27.57839077391026</v>
       </c>
       <c r="G21">
-        <v>304.3414774747612</v>
+        <v>23.69137293184697</v>
       </c>
       <c r="H21">
-        <v>143182982</v>
+        <v>862100000</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>16768380000</v>
@@ -3116,22 +3005,22 @@
         <v>43862</v>
       </c>
       <c r="D22">
-        <v>46.82500076293945</v>
+        <v>23.67695701689456</v>
       </c>
       <c r="E22">
-        <v>46.33100128173828</v>
+        <v>20.74533843994141</v>
       </c>
       <c r="F22">
-        <v>59.38899993896485</v>
+        <v>25.37164647371204</v>
       </c>
       <c r="G22">
-        <v>42.04999923706055</v>
+        <v>18.99221192811104</v>
       </c>
       <c r="H22">
-        <v>1220418767</v>
+        <v>862100000</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>16123628000</v>
@@ -3232,22 +3121,22 @@
         <v>43953</v>
       </c>
       <c r="D23">
-        <v>18.73999977111816</v>
+        <v>25.45195423599868</v>
       </c>
       <c r="E23">
-        <v>20.11000061035156</v>
+        <v>31.8588924407959</v>
       </c>
       <c r="F23">
-        <v>21.88999938964844</v>
+        <v>32.19095953600858</v>
       </c>
       <c r="G23">
-        <v>18.04999923706055</v>
+        <v>24.39715342263057</v>
       </c>
       <c r="H23">
-        <v>112123800</v>
+        <v>862100000</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>16862633000</v>
@@ -3348,22 +3237,22 @@
         <v>44044</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>36.20344458897831</v>
       </c>
       <c r="E24">
-        <v>26.4020004272461</v>
+        <v>37.93487167358398</v>
       </c>
       <c r="F24">
-        <v>28.27799987792969</v>
+        <v>38.39463022322374</v>
       </c>
       <c r="G24">
-        <v>24.61199951171875</v>
+        <v>31.82107705205154</v>
       </c>
       <c r="H24">
-        <v>766266033</v>
+        <v>862100000</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>24263491000</v>
@@ -3464,22 +3353,22 @@
         <v>44135</v>
       </c>
       <c r="D25">
-        <v>478.8699951171875</v>
+        <v>37.1263192134339</v>
       </c>
       <c r="E25">
-        <v>490.7000122070313</v>
+        <v>45.34504699707031</v>
       </c>
       <c r="F25">
-        <v>518.72998046875</v>
+        <v>45.43320990629748</v>
       </c>
       <c r="G25">
-        <v>463.4100036621094</v>
+        <v>35.7646912294087</v>
       </c>
       <c r="H25">
-        <v>424926346</v>
+        <v>862100000</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>25139202000</v>
@@ -3580,22 +3469,22 @@
         <v>44226</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>51.06209958854041</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>47.35455322265625</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>53.51417883563862</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>45.25557398579235</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>862100000</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>34570828000</v>
@@ -3708,22 +3597,22 @@
         <v>44317</v>
       </c>
       <c r="D27">
-        <v>67.30056631934143</v>
+        <v>44.66143494604876</v>
       </c>
       <c r="E27">
-        <v>69.52924346923828</v>
+        <v>47.43067932128906</v>
       </c>
       <c r="F27">
-        <v>72.48583215411878</v>
+        <v>48.32430068002208</v>
       </c>
       <c r="G27">
-        <v>65.86271341112901</v>
+        <v>40.05584851966153</v>
       </c>
       <c r="H27">
-        <v>199618386</v>
+        <v>862100000</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>30548397000</v>
@@ -3824,22 +3713,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>82.94634035907019</v>
+        <v>59.96558231551443</v>
       </c>
       <c r="E28">
-        <v>84.26999664306641</v>
+        <v>60.15235900878906</v>
       </c>
       <c r="F28">
-        <v>86.77550126072052</v>
+        <v>62.98352197795027</v>
       </c>
       <c r="G28">
-        <v>82.34123106917598</v>
+        <v>56.13171571665011</v>
       </c>
       <c r="H28">
-        <v>2850792605</v>
+        <v>862100000</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>49587945000</v>
@@ -3940,22 +3829,22 @@
         <v>44499</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>67.56910882441639</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>70.02902984619141</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>74.89967797355587</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>66.68353575516073</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>862100000</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>56416600000</v>
@@ -4056,22 +3945,22 @@
         <v>44590</v>
       </c>
       <c r="D30">
-        <v>150</v>
+        <v>71.12276401627045</v>
       </c>
       <c r="E30">
-        <v>153.5630035400391</v>
+        <v>67.28254699707031</v>
       </c>
       <c r="F30">
-        <v>163.8345031738281</v>
+        <v>76.99140016082971</v>
       </c>
       <c r="G30">
-        <v>138.3329925537109</v>
+        <v>60.02552163665128</v>
       </c>
       <c r="H30">
-        <v>10664912097</v>
+        <v>862100000</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>55960816000</v>
@@ -4184,22 +4073,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>150.5399932861328</v>
+        <v>57.27088475095857</v>
       </c>
       <c r="E31">
-        <v>153.7299957275391</v>
+        <v>58.29586791992188</v>
       </c>
       <c r="F31">
-        <v>158.7100067138672</v>
+        <v>62.19868410988307</v>
       </c>
       <c r="G31">
-        <v>132.3200073242188</v>
+        <v>49.68207298629233</v>
       </c>
       <c r="H31">
-        <v>272490000</v>
+        <v>862100000</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>49240224000</v>
@@ -4300,22 +4189,22 @@
         <v>44772</v>
       </c>
       <c r="D32">
-        <v>3.940000057220459</v>
+        <v>54.26037938518176</v>
       </c>
       <c r="E32">
-        <v>3.509999990463257</v>
+        <v>46.20718383789063</v>
       </c>
       <c r="F32">
-        <v>4.380000114440918</v>
+        <v>57.66522390746032</v>
       </c>
       <c r="G32">
-        <v>3.339999914169312</v>
+        <v>45.7433343515468</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>862100000</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>47322432000</v>
@@ -4416,22 +4305,22 @@
         <v>44863</v>
       </c>
       <c r="D33">
-        <v>83.23999786376953</v>
+        <v>40.33576061204968</v>
       </c>
       <c r="E33">
-        <v>75.77999877929688</v>
+        <v>45.96814346313477</v>
       </c>
       <c r="F33">
-        <v>86.87999725341797</v>
+        <v>46.05707596281563</v>
       </c>
       <c r="G33">
-        <v>66.44699859619141</v>
+        <v>36.2745160756971</v>
       </c>
       <c r="H33">
-        <v>323270704</v>
+        <v>862100000</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>34965126000</v>
@@ -4532,22 +4421,22 @@
         <v>44954</v>
       </c>
       <c r="D34">
-        <v>3.789999961853027</v>
+        <v>42.87637951910557</v>
       </c>
       <c r="E34">
-        <v>3.700000047683716</v>
+        <v>44.68764114379883</v>
       </c>
       <c r="F34">
-        <v>4.099999904632568</v>
+        <v>48.98319735262233</v>
       </c>
       <c r="G34">
-        <v>3.440000057220459</v>
+        <v>41.7084630538748</v>
       </c>
       <c r="H34">
-        <v>72969110</v>
+        <v>862100000</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>37754100000</v>
@@ -4648,22 +4537,22 @@
         <v>45045</v>
       </c>
       <c r="D35">
-        <v>80.47000122070312</v>
+        <v>39.33194894620095</v>
       </c>
       <c r="E35">
-        <v>81.30999755859375</v>
+        <v>57.97695922851562</v>
       </c>
       <c r="F35">
-        <v>87.41999816894531</v>
+        <v>67.39362661953609</v>
       </c>
       <c r="G35">
-        <v>75.16000366210938</v>
+        <v>38.29115973077777</v>
       </c>
       <c r="H35">
-        <v>136895573</v>
+        <v>862100000</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>33830412000</v>
@@ -4764,22 +4653,22 @@
         <v>45136</v>
       </c>
       <c r="D36">
-        <v>572.4199829101562</v>
+        <v>64.36557211446957</v>
       </c>
       <c r="E36">
-        <v>546.52001953125</v>
+        <v>57.79704666137695</v>
       </c>
       <c r="F36">
-        <v>579.1199951171875</v>
+        <v>65.77452834502068</v>
       </c>
       <c r="G36">
-        <v>477.510009765625</v>
+        <v>51.84370279926088</v>
       </c>
       <c r="H36">
-        <v>52693110</v>
+        <v>862100000</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>55822600000</v>
@@ -4880,22 +4769,22 @@
         <v>45227</v>
       </c>
       <c r="D37">
-        <v>204.0399932861328</v>
+        <v>46.73673911681581</v>
       </c>
       <c r="E37">
-        <v>240.0800018310547</v>
+        <v>55.35894775390625</v>
       </c>
       <c r="F37">
-        <v>252.75</v>
+        <v>57.73303446537559</v>
       </c>
       <c r="G37">
-        <v>197.8500061035156</v>
+        <v>46.02153547229005</v>
       </c>
       <c r="H37">
-        <v>3325150886</v>
+        <v>862100000</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>40775928000</v>
@@ -4996,22 +4885,22 @@
         <v>45325</v>
       </c>
       <c r="D38">
-        <v>60.88999938964844</v>
+        <v>67.81761713948933</v>
       </c>
       <c r="E38">
-        <v>76.61000061035156</v>
+        <v>71.25822448730469</v>
       </c>
       <c r="F38">
-        <v>77.26000213623047</v>
+        <v>72.45149336187964</v>
       </c>
       <c r="G38">
-        <v>60.08000183105469</v>
+        <v>63.17380244688746</v>
       </c>
       <c r="H38">
-        <v>136895573</v>
+        <v>862100000</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>58379685000</v>
@@ -5112,22 +5001,22 @@
         <v>45416</v>
       </c>
       <c r="D39">
-        <v>528.1699829101562</v>
+        <v>64.18231575750241</v>
       </c>
       <c r="E39">
-        <v>560.7999877929688</v>
+        <v>68.48170471191406</v>
       </c>
       <c r="F39">
-        <v>605.4500122070312</v>
+        <v>78.06576479268197</v>
       </c>
       <c r="G39">
-        <v>512.1199951171875</v>
+        <v>63.03780469122229</v>
       </c>
       <c r="H39">
-        <v>185748673</v>
+        <v>862100000</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>59329660000</v>
@@ -5228,22 +5117,22 @@
         <v>45507</v>
       </c>
       <c r="D40">
-        <v>178.6199951171875</v>
+        <v>65.29154673026865</v>
       </c>
       <c r="E40">
-        <v>199.979995727539</v>
+        <v>75.93939208984375</v>
       </c>
       <c r="F40">
-        <v>202.6399993896484</v>
+        <v>78.68851184672683</v>
       </c>
       <c r="G40">
-        <v>155.9700012207031</v>
+        <v>52.9802764185465</v>
       </c>
       <c r="H40">
-        <v>158300823</v>
+        <v>862100000</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>51286800000</v>
@@ -5344,22 +5233,22 @@
         <v>45598</v>
       </c>
       <c r="D41">
-        <v>296.7900085449219</v>
+        <v>83.93743212148811</v>
       </c>
       <c r="E41">
-        <v>345.9700012207031</v>
+        <v>92.40096282958984</v>
       </c>
       <c r="F41">
-        <v>377.4200134277344</v>
+        <v>95.25204496497716</v>
       </c>
       <c r="G41">
-        <v>295.0799865722656</v>
+        <v>82.85083477065204</v>
       </c>
       <c r="H41">
-        <v>250955140</v>
+        <v>862100000</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>73427774000</v>
@@ -5460,22 +5349,22 @@
         <v>45689</v>
       </c>
       <c r="D42">
-        <v>18.96999931335449</v>
+        <v>108.4559464099061</v>
       </c>
       <c r="E42">
-        <v>23.72999954223633</v>
+        <v>91.58014678955078</v>
       </c>
       <c r="F42">
-        <v>27.54999923706055</v>
+        <v>121.4918045515922</v>
       </c>
       <c r="G42">
-        <v>18.78000068664551</v>
+        <v>85.90500781602866</v>
       </c>
       <c r="H42">
-        <v>4757218036</v>
+        <v>862100000</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>97657758000</v>
@@ -5576,22 +5465,22 @@
         <v>45780</v>
       </c>
       <c r="D43">
-        <v>113.3399963378906</v>
+        <v>60.061037093219</v>
       </c>
       <c r="E43">
-        <v>103.1699981689453</v>
+        <v>60.10097503662109</v>
       </c>
       <c r="F43">
-        <v>127.5670013427734</v>
+        <v>67.49002783373193</v>
       </c>
       <c r="G43">
-        <v>102.1500015258789</v>
+        <v>53.7004558539689</v>
       </c>
       <c r="H43">
-        <v>168459019</v>
+        <v>862100000</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>53984013000</v>
@@ -5692,22 +5581,22 @@
         <v>45871</v>
       </c>
       <c r="D44">
-        <v>448.9500122070313</v>
+        <v>77.01900468823257</v>
       </c>
       <c r="E44">
-        <v>423.7000122070313</v>
+        <v>62.82839965820312</v>
       </c>
       <c r="F44">
-        <v>457.7999877929687</v>
+        <v>80.00702415624012</v>
       </c>
       <c r="G44">
-        <v>409.25</v>
+        <v>62.57856507602716</v>
       </c>
       <c r="H44">
-        <v>250955140</v>
+        <v>862100000</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>64190790000</v>
